--- a/documents/03_QM/FRVA_Risikoliste.xlsx
+++ b/documents/03_QM/FRVA_Risikoliste.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Risikoliste" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Revision" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Risikoliste</t>
   </si>
@@ -34,9 +35,6 @@
     <t xml:space="preserve">Risiko</t>
   </si>
   <si>
-    <t xml:space="preserve">Verantwortliche Rolle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Qualität</t>
   </si>
   <si>
@@ -49,7 +47,7 @@
     <t xml:space="preserve">Wahrscheinlichkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">RisikoFaktor</t>
+    <t xml:space="preserve">Risikofaktor</t>
   </si>
   <si>
     <t xml:space="preserve">Bewertung</t>
@@ -58,24 +56,66 @@
     <t xml:space="preserve">Massnahmen</t>
   </si>
   <si>
-    <t xml:space="preserve">Fehlende Dokumentation</t>
+    <t xml:space="preserve">Fehlende Dokumentation der Geräte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertiefte Zusammenarbeit mit den Geräteentwickler </t>
   </si>
   <si>
     <t xml:space="preserve">Fehlendes Wissen → Spektrometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragen werden gezielt an A. Hueni gestellt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehlendes Wissen → Serielle Verbindungen und Bluetooth mit Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einarbeiten über die Literatur, erstellen von Prototypen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausfall eines Team Mitglieds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfügbarkeit eines Testgerätes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erhöht sich je näher die Construction kommt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Änderung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roland Mosimann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initiale Version erstellt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -92,16 +132,37 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -109,6 +170,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -135,13 +217,61 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -161,125 +291,348 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.5765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.74489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8520408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="60.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="C4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <f aca="false">SUM(C4:E4)*F4</f>
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="10" t="str">
+        <f aca="false">IF(G4&lt;0.4,"low priority",IF(G4&lt;0.8,"medium priority",IF(G4&lt;1,"high priority","very high priority")))</f>
+        <v>medium priority</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">SUM(D4:F4)*G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="str">
-        <f aca="false">IF(I11&lt;0.4,"low priority",IF(I11&lt;0.8,"medium priority",IF(I11&lt;1,"high priority","very high priority")))</f>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <f aca="false">SUM(C5:E5)*F5</f>
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f aca="false">IF(G5&lt;0.4,"low priority",IF(G5&lt;0.8,"medium priority",IF(G5&lt;1,"high priority","very high priority")))</f>
+        <v>medium priority</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <f aca="false">SUM(C6:E6)*F6</f>
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f aca="false">IF(G6&lt;0.4,"low priority",IF(G6&lt;0.8,"medium priority",IF(G6&lt;1,"high priority","very high priority")))</f>
+        <v>medium priority</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <f aca="false">SUM(C7:E7)*F7</f>
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f aca="false">IF(G7&lt;0.4,"low priority",IF(G7&lt;0.8,"medium priority",IF(G7&lt;1,"high priority","very high priority")))</f>
         <v>low priority</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">SUM(D5:F5)*G5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="I7" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">SUM(D6:F6)*G6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H7" s="0" t="n">
-        <f aca="false">SUM(D7:F7)*G7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="0" t="n">
-        <f aca="false">SUM(D8:F8)*G8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="0" t="n">
-        <f aca="false">SUM(D9:F9)*G9</f>
-        <v>0</v>
-      </c>
+      <c r="F8" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <f aca="false">SUM(C8:E8)*F8</f>
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f aca="false">IF(G8&lt;0.4,"low priority",IF(G8&lt;0.8,"medium priority",IF(G8&lt;1,"high priority","very high priority")))</f>
+        <v>low priority</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -289,4 +642,56 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>42992</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/documents/03_QM/FRVA_Risikoliste.xlsx
+++ b/documents/03_QM/FRVA_Risikoliste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoliste" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t xml:space="preserve">Risikoliste</t>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">Massnahmen</t>
   </si>
   <si>
-    <t xml:space="preserve">Fehlende Dokumentation der Geräte</t>
+    <t xml:space="preserve">Fehlendes Verständnis für die Funktionalität der Geräte (fehlende Dokumentation der Geräte)</t>
   </si>
   <si>
     <t xml:space="preserve">Vertiefte Zusammenarbeit mit den Geräteentwickler </t>
@@ -83,7 +83,16 @@
     <t xml:space="preserve">Verfügbarkeit eines Testgerätes</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhöht sich je näher die Construction kommt</t>
+    <t xml:space="preserve">Verspätungen Firmware Entwicklung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inkompatible Bluetooth Implementationen (OS/HW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hohe zeitliche Belastung durch Studium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zu viel Projektmanagement (Überlastung)</t>
   </si>
   <si>
     <t xml:space="preserve">Datum</t>
@@ -99,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">Initiale Version erstellt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-9 Hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -217,7 +229,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,10 +276,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -293,22 +301,21 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.74489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8520408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="60.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="60.2040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,7 +376,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0</v>
@@ -379,11 +386,11 @@
       </c>
       <c r="G4" s="8" t="n">
         <f aca="false">SUM(C4:E4)*F4</f>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H4" s="10" t="str">
         <f aca="false">IF(G4&lt;0.4,"low priority",IF(G4&lt;0.8,"medium priority",IF(G4&lt;1,"high priority","very high priority")))</f>
-        <v>medium priority</v>
+        <v>very high priority</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>12</v>
@@ -397,24 +404,24 @@
         <v>13</v>
       </c>
       <c r="C5" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G5" s="8" t="n">
         <f aca="false">SUM(C5:E5)*F5</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H5" s="10" t="str">
         <f aca="false">IF(G5&lt;0.4,"low priority",IF(G5&lt;0.8,"medium priority",IF(G5&lt;1,"high priority","very high priority")))</f>
-        <v>medium priority</v>
+        <v>high priority</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>14</v>
@@ -431,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="9" t="n">
         <v>0.5</v>
@@ -489,8 +496,12 @@
       <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" s="8" t="n">
         <v>3</v>
       </c>
@@ -506,127 +517,207 @@
         <v>low priority</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <f aca="false">SUM(C9:E9)*F9</f>
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f aca="false">IF(G9&lt;0.4,"low priority",IF(G9&lt;0.8,"medium priority",IF(G9&lt;1,"high priority","very high priority")))</f>
+        <v>low priority</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <f aca="false">SUM(C10:E10)*F10</f>
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f aca="false">IF(G10&lt;0.4,"low priority",IF(G10&lt;0.8,"medium priority",IF(G10&lt;1,"high priority","very high priority")))</f>
+        <v>low priority</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <f aca="false">SUM(C11:E11)*F11</f>
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f aca="false">IF(G11&lt;0.4,"low priority",IF(G11&lt;0.8,"medium priority",IF(G11&lt;1,"high priority","very high priority")))</f>
+        <v>low priority</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <f aca="false">SUM(C12:E12)*F12</f>
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f aca="false">IF(G12&lt;0.4,"low priority",IF(G12&lt;0.8,"medium priority",IF(G12&lt;1,"high priority","very high priority")))</f>
+        <v>low priority</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
     </row>
@@ -649,40 +740,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="12" t="n">
         <v>42992</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
+        <v>42996</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
